--- a/amazon_ad/output.xlsx
+++ b/amazon_ad/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>修改后的</t>
+          <t>需编辑文档</t>
         </is>
       </c>
     </row>
@@ -460,17 +460,85 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>URL: https://www.amazon.com/dp/B08MKXT44V
-Product name: SMART BRAID Crochet Hair Bomb Twist Passion Twist Braiding Hair Synthetic Hair Extensions 7PCS
-68% off code: 68% (60% off code + 8% coupon): W2TJ6EXK
-Reg.Price: $38.0
-Final Price: $12.2
-Expire Date: None</t>
+          <t>URL: https://www.amazon.com/gp/mpc/A3BL4Y47IXIJ65
+    Product name: Tappovaly Tea Lights, 24 Pack Flameless LED Candles Battery Operated Tea Lights Candles Long Lasting Tealight for Wedding Holiday Party Home Decoration (Warm White)
+    0.0% off code: 407NUESK
+    Reg.Price: $17.99
+    Final Price: $17.99
+    Expire Date: 2020-11-08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
+        <is>
+          <t>URL: https://www.amazon.com/dp/B07ZCVC6JC
+Product name: 20inch Passion Twist Hair Water Wave Crochet Braids
+42% off code(work on all color): NVV77FVP
+Reg.Price: $34.00
+Final Price: $19.72
+Expire Date: 2020-11-10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>URL: https://www.amazon.com/dp/B07ZCVC6JC
+    Product name: 20inch Passion Twist Hair Water Wave Crochet Braids Synthetic Bohemian Hair Extensions Pre-twisted Passion Braiding Hair Kima Ocean Wave Crochet Hair
+    0.0% off code: NVV77FVP
+    Reg.Price: $34.0
+    Final Price: $34.00
+    Expire Date: 2020-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>URL: https://www.amazon.com/dp/B07VMJN1B1
+Product name: Women's cycling pants
+50% off code(work on all color and size): 7XYCERHG
+Reg.Price: $23.99-$29.99
+Final Price: $11.99-$14.99
+Expire Date: 2020-11-16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>URL: https://www.amazon.com/dp/B07VMJN1B1
+    Product name: ANIVIVO Women Cycling Pants with Pockets,Up-Padding Bike Tight Pants for Women
+    51.0% off code: 51.0% (51% off code): 7XYCERHG
+    Reg.Price: $29.99
+    Final Price: $14.99
+    Expire Date: 2020-11-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>标题：【Two-Way Audio】 Wireless Security Camera System,Fyuui 8 Channel 1080P Wireless  Surveillance H.265+ NVR 4pcs 2.0 Megapixel WiFi IP Bullet Camera (0TB Hard Drive/ 1TB Hard  Drive Optional)
+0TB Hard Drive System:https://www.amazon.com/gp/product/B07SZCFLB8
+Deal Price: $ 94.995
+Original Price:$189.99
+Code：50D7422M
+Discount: 50% off 
+Start Date : 2020-11-7  00:01PST
+End Date : 2020-11-10  23:59PST</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>URL: https://www.amazon.com/gp/product/B07SZCFLB8
+    Product name: 【Two-Way Audio】 Wireless Security Camera System,Fyuui 8 Channel 1080P Wireless Surveillance H.265+ NVR 4pcs 2.0 Megapixel (1920×1080P) WiFi IP Bullet Camera Outdoor Indoor, Remote View
+    4.0% off code: 4.0% (4% coupon): 50D7422M
+    Reg.Price: $289.99
+    Final Price: $279.99
+    Expire Date: 2020-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>https://www.amazon.com/dp/B07ZCVC6JC?ref=myi_title_dp
 产品名称：
@@ -485,92 +553,19 @@
 11.10</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>URL: https://www.amazon.com/dp/B07WYVHDN3
-Product name: Legend of Ninja Uzumaki Naruto Canvas Art Print for Home Decoration,8 x 10 Inches,No Frame
-60.0% off code: 60.0% (60% off code): 3VGZRIXP
-Reg.Price: $25.99
-Final Price: $10.399999999999999
-Expire Date: None</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>产品链接：https://www.amazon.com/gp/mpc/A3BL4Y47IXIJ65
-折扣：40%
-折扣码：407NUESK
-原价：10.99
-折后价：6.59
-开始时间：2020.11.06   22：00
-结束时间：2020.11.08   15:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>URL: https://www.amazon.com/dp/B07ZCVC6JC
-Product name: 20inch Passion Twist Hair Water Wave Crochet Braids
-42% off code(work on all color): NVV77FVP
-Reg.Price: $34.00
-Final Price: $19.72
-Expire Date: 2020-11-10</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>URL: https://www.amazon.com/dp/B07VMJN1B1
-Product name: Women's cycling pants
-50% off code(work on all color and size): 7XYCERHG
-Reg.Price: $23.99-$29.99
-Final Price: $11.99-$14.99
-Expire Date: 2020-11-16</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+    Product name: 20inch Passion Twist Hair Water Wave Crochet Braids Synthetic Bohemian Hair Extensions Pre-twisted Passion Braiding Hair Kima Ocean Wave Crochet Hair
+    0.0% off code: NVV77FVP
+    Reg.Price: $34.0
+    Final Price: $34.00
+    Expire Date: 2020-11-10</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
-        <is>
-          <t>标题：【Two-Way Audio】 Wireless Security Camera System,Fyuui 8 Channel 1080P Wireless  Surveillance H.265+ NVR 4pcs 2.0 Megapixel WiFi IP Bullet Camera (0TB Hard Drive/ 1TB Hard  Drive Optional)
-0TB Hard Drive System:https://www.amazon.com/gp/product/B07SZCFLB8
-Deal Price: $ 94.995
-Original Price:$189.99
-Code：50D7422M
-Discount: 50% off 
-Start Date : 2020-11-7  00:01PST
-End Date : 2020-11-10  23:59PST</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/dp/B07ZCVC6JC?ref=myi_title_dp
-产品名称：
-20inch Passion Twist Hair Water Wave Crochet Braids
-折扣：NVV77FVP
-42 off
-原价：34
-折后价：19.72
-开始时间：
-11.06
-结束时间：
-11.10</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
         <is>
           <t>URL: https://www.amazon.com/dp/B08FFHL133?ref=myi_title_dp
 Product: Women Leopard Sweater Cardigan Open Front Knit Outwear
@@ -582,10 +577,19 @@
 库存（可售库存）：407</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>URL: https://www.amazon.com/dp/B08FFHL133
+    Product name: Dressystar Women Leopard Sweater Cardigan Color Block Striped Open Front Knit Outwear
+    0.0% off code: HRB356EA
+    Reg.Price: $31.99
+    Final Price: $31.99
+    Expire Date: 2020-11-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>URL: https://www.amazon.com/dp/B08BYKRFCJ?ref=myi_title_dp（简短标题）:100% Silicone Reusable Food Bag 
 50% off code: 7EV8HW4D
@@ -595,10 +599,10 @@
 Expire Date: 2020-12-623:59PST</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>URL: https://www.amazon.com/Artificial-Decorations-pinecones-Christmas-Decoration/dp/B08LYQY2FX
 Product name（简短标题）: Christmas decoration 50% OFF
@@ -609,10 +613,19 @@
 Expire Date:2020-11-30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>URL: https://www.amazon.com/dp/B08LYQY2FX
+    Product name: U/S Pine Cones Artificial Acorns Berry Crafts,Natural Pine Cones Decorations,pinecones for Crafts,Christmas Tree Decoration,Ornaments
+    51.0% off code: 51.0% (51% off code): BFF4H9GA
+    Reg.Price: $9.99
+    Final Price: $4.99
+    Expire Date: 2020-11-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1. URL:https://www.amazon.com/dp/B07V6D899T?ref=myi_title_dp&amp;th=1&amp;psc=1                                                                      2.Product name:  Mens Vintage Motorcycle Jacket                                 
 3.Shipping information: FBA                    
@@ -623,10 +636,19 @@
 7. Original price:  36.99-44.99</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>URL: https://www.amazon.com/dp/B07V6D899T
+    Product name: INVACHI Mens Vintage Motorcycle Jacket Zipper Closure PU Faux Leather Outweatr Coat
+    0.0% off code: DLKQK7BZ
+    Reg.Price: $46.99
+    Final Price: $46.99
+    Expire Date: 2020-11-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>URL: https://www.amazon.com/dp/B08MKXT44V
 Product name: Crochet Hair Bomb Twist Passion Twist Braiding Hair Synthetic Hair Extensions 7PCS
@@ -636,10 +658,19 @@
 Expire Date: 2020-12-9</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>URL: https://www.amazon.com/dp/B08MKXT44V
+    Product name: SMART BRAID Crochet Hair Bomb Twist Passion Twist Braiding Hair Synthetic Hair Extensions 7PCS
+    68% off code: 68% (60% off code + 8% coupon): W2TJ6EXK
+    Reg.Price: $38.0
+    Final Price: $12.20
+    Expire Date: None</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Product name:Naruto Sennin Model Original Anime Canvas Wall Art Poster
 Link: https://www.amazon.com/Naruto-Sennin-Uzaumaki-Anime-Poster/dp/B07WYVHDN3
@@ -652,7 +683,16 @@
 330</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>URL: https://www.amazon.com/dp/B07WYVHDN3
+    Product name: Legend of Ninja Uzumaki Naruto Canvas Art Print for Home Decoration,8 x 10 Inches,No Frame
+    60.0% off code: 60.0% (60% off code): 3VGZRIXP
+    Reg.Price: $25.99
+    Final Price: $10.40
+    Expire Date: None</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
